--- a/Cases/WebCases.xlsx
+++ b/Cases/WebCases.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BCBAE98-509D-43FB-B91E-FBF1DCB2EB07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE207388-141C-4A74-A3E2-10B16256B5D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2016" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商城后台系统用例" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="111">
   <si>
     <t>分组信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chrome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用例步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试商品Roy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择商品类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chrome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加商品到购物车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,75 +337,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>//div[@class='shop-list-splb p']/ul/li[1]//div[@class='xs_img']/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换iframe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchIframebyele</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//iframe[contains(@id,'lay')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去购物车结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[text()='去购物车结算']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言添加成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertEleTextContains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='erhuh']/h3</t>
+  </si>
+  <si>
+    <t>订单提交成功</t>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[text()='返回商城首页']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1766342177@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1599</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1499</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitWeb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openBrowser</t>
+  </si>
+  <si>
     <t>http://www.testingedu.com.cn:8000/Home/user/login.html</t>
-  </si>
-  <si>
-    <t>//div[@class='shop-list-splb p']/ul/li[1]//div[@class='xs_img']/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换iframe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switchIframebyele</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//iframe[contains(@id,'lay')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>halt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去购物车结算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//a[text()='去购物车结算']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//button[contains(text(),'提交订单')]</t>
-  </si>
-  <si>
-    <t>断言添加成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertEleTextContains</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class='erhuh']/h3</t>
-  </si>
-  <si>
-    <t>订单提交成功</t>
-  </si>
-  <si>
-    <t>click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//a[text()='返回商城首页']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[text()='去结算']</t>
+  </si>
+  <si>
+    <t>购物车界面点击去结算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +461,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,6 +474,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -492,35 +536,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -858,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -876,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -887,107 +929,105 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="D4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>80</v>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -996,152 +1036,152 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>101</v>
+      <c r="F7" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>41</v>
+      <c r="F14" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1150,199 +1190,205 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="10">
-        <v>52</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="5"/>
+      <c r="F15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="8"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="5"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="10">
-        <v>54</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="5"/>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="8"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="5"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="10">
-        <v>374</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="5"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="8"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="10">
-        <v>50</v>
+      <c r="E20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="5"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="10">
-        <v>80</v>
+      <c r="E21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="5"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="10"/>
+      <c r="E22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="5"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="10"/>
+      <c r="E23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="3"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="5"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="D24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="5"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1356,17 +1402,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="60.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="17.77734375" customWidth="1" collapsed="1"/>
@@ -1377,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1388,70 +1434,68 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="A2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1460,15 +1504,15 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1479,19 +1523,19 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="6">
-        <v>13800138006</v>
+        <v>75</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1500,19 +1544,19 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <v>123456</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1521,19 +1565,19 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1542,49 +1586,49 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="8" t="s">
-        <v>62</v>
+      <c r="C11" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1594,17 +1638,17 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>41</v>
+      <c r="E12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1615,16 +1659,16 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="8" t="s">
-        <v>55</v>
+      <c r="C13" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="6"/>
+      <c r="E13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1634,16 +1678,16 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="8" t="s">
-        <v>66</v>
+      <c r="C14" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="6"/>
+      <c r="E14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1653,16 +1697,16 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="8" t="s">
-        <v>67</v>
+      <c r="C15" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="6"/>
+      <c r="E15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1672,18 +1716,18 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="8" t="s">
-        <v>85</v>
+      <c r="C16" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="5"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1691,18 +1735,18 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="8" t="s">
-        <v>88</v>
+      <c r="C17" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="8">
+        <v>85</v>
+      </c>
+      <c r="E17" s="10">
         <v>1</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="5"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1710,18 +1754,18 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="8" t="s">
-        <v>90</v>
+      <c r="C18" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="5"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1729,18 +1773,18 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="8" t="s">
-        <v>93</v>
+      <c r="C19" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1748,20 +1792,18 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="8" t="s">
-        <v>95</v>
+      <c r="C20" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>98</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="5"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1769,23 +1811,50 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
+      <c r="C21" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="8"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{43D9D05A-4DD9-4BDC-9DEF-FCA97449BD5F}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{3197B13A-6E62-47C7-A872-030E581EE270}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>